--- a/xlsx/宗教自由_intext.xlsx
+++ b/xlsx/宗教自由_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="465">
   <si>
     <t>宗教自由</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E4%BB%B0%E8%87%AA%E7%94%B1_(%E6%B2%B9%E7%95%AB)</t>
   </si>
   <si>
-    <t>信仰自由 (油畫)</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_宗教自由</t>
+    <t>信仰自由 (油画)</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_宗教自由</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%88%A9</t>
   </si>
   <si>
-    <t>權利</t>
+    <t>权利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%84%8F%E5%BF%97</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E8%87%AA%E7%94%B1</t>
   </si>
   <si>
-    <t>經濟自由</t>
+    <t>经济自由</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%A6%E6%9C%AF%E8%87%AA%E7%94%B1</t>
@@ -107,13 +107,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E8%A8%8A%E8%87%AA%E7%94%B1</t>
   </si>
   <si>
-    <t>資訊自由</t>
+    <t>资讯自由</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A8%80%E8%AB%96%E8%87%AA%E7%94%B1</t>
   </si>
   <si>
-    <t>言論自由</t>
+    <t>言论自由</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%BA%E7%89%88%E8%87%AA%E7%94%B1</t>
@@ -125,19 +125,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%81%9E%E8%87%AA%E7%94%B1</t>
   </si>
   <si>
-    <t>新聞自由</t>
+    <t>新闻自由</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%86%E6%9C%83%E8%87%AA%E7%94%B1</t>
   </si>
   <si>
-    <t>集會自由</t>
+    <t>集会自由</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%90%E7%A4%BE%E8%87%AA%E7%94%B1</t>
   </si>
   <si>
-    <t>結社自由</t>
+    <t>结社自由</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%A1%E6%9F%A5%E5%88%B6%E5%BA%A6</t>
@@ -149,13 +149,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%81%E6%9B%B8</t>
   </si>
   <si>
-    <t>禁書</t>
+    <t>禁书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%BD%B1%E5%88%86%E7%B4%9A%E5%88%B6%E5%BA%A6</t>
   </si>
   <si>
-    <t>電影分級制度</t>
+    <t>电影分级制度</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%92%E8%81%94%E7%BD%91%E5%AE%A1%E6%9F%A5</t>
@@ -167,15 +167,12 @@
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E8%A8%8A%E7%9B%A3%E5%AF%9F</t>
   </si>
   <si>
-    <t>通訊監察</t>
+    <t>通讯监察</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E9%97%BB%E8%87%AA%E7%94%B1</t>
   </si>
   <si>
-    <t>新闻自由</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A0%E7%BA%BF%E7%94%B5%E5%B9%B2%E6%89%B0</t>
   </si>
   <si>
@@ -191,7 +188,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%AE%E7%A6%81</t>
   </si>
   <si>
-    <t>髮禁</t>
+    <t>发禁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%8F%8A%E5%88%A9%E4%BA%9A%E5%AE%A1%E6%9F%A5%E5%88%B6%E5%BA%A6</t>
@@ -221,7 +218,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B7%AC%E7%94%B8%E5%AF%A9%E6%9F%A5%E5%88%B6%E5%BA%A6</t>
   </si>
   <si>
-    <t>緬甸審查制度</t>
+    <t>缅甸审查制度</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Freedom_of_the_press_in_Russia</t>
@@ -257,7 +254,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%92%E8%9F%AC%E6%95%88%E6%87%89</t>
   </si>
   <si>
-    <t>寒蟬效應</t>
+    <t>寒蝉效应</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%9A%E4%B9%A6</t>
@@ -323,31 +320,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E8%98%AD%E5%85%8B%E6%9E%97%C2%B7%E5%BE%B7%E6%8B%89%E8%AB%BE%C2%B7%E7%BE%85%E6%96%AF%E7%A6%8F</t>
   </si>
   <si>
-    <t>富蘭克林·德拉諾·羅斯福</t>
+    <t>富兰克林·德拉诺·罗斯福</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>美國國會</t>
+    <t>美国国会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%AC%8A%E5%88%A9%E6%B3%95%E6%A1%88</t>
   </si>
   <si>
-    <t>美國權利法案</t>
+    <t>美国权利法案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>美國歷史</t>
+    <t>美国历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E6%A0%BC%E6%8B%89%E5%BA%95</t>
   </si>
   <si>
-    <t>蘇格拉底</t>
+    <t>苏格拉底</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E9%87%8C%E5%A3%AB%E5%A4%9A%E5%BE%B7</t>
@@ -359,7 +356,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%90%89%E5%8F%A4%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>塞琉古帝國</t>
+    <t>塞琉古帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%8B%92%E6%96%AF%E5%9D%A6</t>
@@ -371,19 +368,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E5%A4%AA%E4%BA%BA</t>
   </si>
   <si>
-    <t>猶太人</t>
+    <t>犹太人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E7%A5%9E%E8%A9%B1</t>
   </si>
   <si>
-    <t>希臘神話</t>
+    <t>希腊神话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>羅馬帝國</t>
+    <t>罗马帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99</t>
@@ -395,7 +392,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E5%A4%AA%E6%95%99</t>
   </si>
   <si>
-    <t>猶太教</t>
+    <t>犹太教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E5%B0%BC%E6%95%99</t>
@@ -413,13 +410,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E7%A5%BF</t>
   </si>
   <si>
-    <t>尼祿</t>
+    <t>尼禄</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%96%E5%AF%86%E5%96%84</t>
   </si>
   <si>
-    <t>圖密善</t>
+    <t>图密善</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E8%A5%BF%E4%B9%8C%E6%96%AF</t>
@@ -449,7 +446,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E8%98%AD%E8%A9%94%E6%9B%B8</t>
   </si>
   <si>
-    <t>米蘭詔書</t>
+    <t>米兰诏书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%AC%A7</t>
@@ -473,15 +470,12 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%95%99</t>
   </si>
   <si>
-    <t>國教</t>
+    <t>国教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8A%B9%E5%A4%AA%E4%BA%BA</t>
   </si>
   <si>
-    <t>犹太人</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%9D%B0%E4%BA%8C%E4%B8%96</t>
   </si>
   <si>
@@ -509,7 +503,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%A0%BC%E6%96%AF%E5%A0%A1%E5%92%8C%E7%B4%84</t>
   </si>
   <si>
-    <t>奧格斯堡和約</t>
+    <t>奥格斯堡和约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E5%9C%A3%E7%BD%97%E9%A9%AC%E5%B8%9D%E5%9B%BD</t>
@@ -551,7 +545,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%BC%A2</t>
   </si>
   <si>
-    <t>西漢</t>
+    <t>西汉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A3%E4%BB%B2%E8%88%92</t>
@@ -563,7 +557,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AD%E8%97%9D</t>
   </si>
   <si>
-    <t>六藝</t>
+    <t>六艺</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%94%E5%AD%90</t>
@@ -587,7 +581,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E6%AD%A6%E5%B8%9D</t>
   </si>
   <si>
-    <t>漢武帝</t>
+    <t>汉武帝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%84%92%E5%AE%B6</t>
@@ -605,7 +599,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%81%8A%E8%A8%98</t>
   </si>
   <si>
-    <t>西遊記</t>
+    <t>西游记</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E4%BB%99</t>
@@ -641,13 +635,10 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A7%E8%A6%96</t>
   </si>
   <si>
-    <t>歧視</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%92%8C%E5%9C%98</t>
   </si>
   <si>
-    <t>義和團</t>
+    <t>义和团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%95%99</t>
@@ -659,31 +650,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%B3%E6%95%99%E5%A3%AB</t>
   </si>
   <si>
-    <t>傳教士</t>
+    <t>传教士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>第二次世界大戰</t>
+    <t>第二次世界大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B</t>
   </si>
   <si>
-    <t>聯合國</t>
+    <t>联合国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E4%BA%BA%E6%AC%8A%E5%AE%A3%E8%A8%80</t>
   </si>
   <si>
-    <t>世界人權宣言</t>
+    <t>世界人权宣言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%86%B2%E6%B3%95</t>
   </si>
   <si>
-    <t>憲法</t>
+    <t>宪法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
@@ -701,7 +692,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>美國政府</t>
+    <t>美国政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%95%99%E5%88%86%E7%A6%BB</t>
@@ -713,13 +704,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%AA%95%E7%AF%80</t>
   </si>
   <si>
-    <t>聖誕節</t>
+    <t>圣诞节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%AA%95%E6%A8%B9</t>
   </si>
   <si>
-    <t>聖誕樹</t>
+    <t>圣诞树</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/9%C2%B711%E4%BA%8B%E4%BB%B6</t>
@@ -743,7 +734,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99%E6%81%90%E6%80%96%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>基督教恐怖主義</t>
+    <t>基督教恐怖主义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Army_of_God_(United_States)</t>
@@ -809,13 +800,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華人民共和國</t>
+    <t>中华人民共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E5%88%A9%E5%9E%82%E4%BA%9E</t>
   </si>
   <si>
-    <t>厄利垂亞</t>
+    <t>厄利垂亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%97</t>
@@ -833,7 +824,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%9F%93</t>
   </si>
   <si>
-    <t>北韓</t>
+    <t>北韩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97</t>
@@ -845,43 +836,43 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%83%8F%E5%9C%B0%E9%98%BF%E6%8B%89%E4%BC%AF</t>
   </si>
   <si>
-    <t>沙烏地阿拉伯</t>
+    <t>沙乌地阿拉伯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%88%E5%8F%8A%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>奈及利亞</t>
+    <t>奈及利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E4%B8%B9</t>
   </si>
   <si>
-    <t>蘇丹</t>
+    <t>苏丹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E8%8C%B2%E5%88%A5%E5%85%8B</t>
   </si>
   <si>
-    <t>烏茲別克</t>
+    <t>乌兹别克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E5%BA%AB%E6%9B%BC</t>
   </si>
   <si>
-    <t>土庫曼</t>
+    <t>土库曼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
+    <t>俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%98%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>敘利亞</t>
+    <t>叙利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%AF%8C%E6%B1%97</t>
@@ -893,7 +884,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>白俄羅斯</t>
+    <t>白俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%90%89%E5%85%8B</t>
@@ -911,19 +902,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E9%A6%AC%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>索馬利亞</t>
+    <t>索马利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E9%87%8C%E8%98%AD%E5%8D%A1</t>
   </si>
   <si>
-    <t>斯里蘭卡</t>
+    <t>斯里兰卡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%AE%E5%9C%8B</t>
   </si>
   <si>
-    <t>寮國</t>
+    <t>寮国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%8F%8A</t>
@@ -947,7 +938,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%85%A7%E7%91%9E%E6%8B%89</t>
   </si>
   <si>
-    <t>委內瑞拉</t>
+    <t>委内瑞拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%B0%BC</t>
@@ -989,7 +980,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E6%86%B2%E6%B3%95</t>
   </si>
   <si>
-    <t>中華民國憲法</t>
+    <t>中华民国宪法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%AE%AA%E6%B3%95</t>
@@ -1001,7 +992,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E4%B8%BB%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>天主教會</t>
+    <t>天主教会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%87%AA%E6%95%99%E4%BC%9A</t>
@@ -1019,39 +1010,36 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%B6%E5%BA%AD%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>家庭教會</t>
+    <t>家庭教会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E7%89%B9%E5%88%A5%E8%A1%8C%E6%94%BF%E5%8D%80%E5%9F%BA%E6%9C%AC%E6%B3%95</t>
   </si>
   <si>
-    <t>香港特別行政區基本法</t>
+    <t>香港特别行政区基本法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80%E7%89%B9%E5%88%A5%E8%A1%8C%E6%94%BF%E5%8D%80%E5%9F%BA%E6%9C%AC%E6%B3%95</t>
   </si>
   <si>
-    <t>澳門特別行政區基本法</t>
+    <t>澳门特别行政区基本法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%9F%93%E6%B0%91%E5%9C%8B%E6%86%B2%E6%B3%95</t>
   </si>
   <si>
-    <t>大韓民國憲法</t>
+    <t>大韩民国宪法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E5%9C%8B%E6%86%B2%E6%B3%95</t>
   </si>
   <si>
-    <t>日本國憲法</t>
+    <t>日本国宪法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E6%95%99</t>
   </si>
   <si>
-    <t>伊斯蘭教</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%89%B9%E9%98%BF%E6%8B%89%E4%BC%AF</t>
   </si>
   <si>
@@ -1073,7 +1061,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%9B%E6%95%99_(%E4%BC%8A%E6%96%AF%E8%98%AD%E6%95%99)</t>
   </si>
   <si>
-    <t>叛教 (伊斯蘭教)</t>
+    <t>叛教 (伊斯兰教)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%B2%9C%E6%B0%91%E4%B8%BB%E4%B8%BB%E4%B9%89%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -1085,7 +1073,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E6%B0%91%E4%B8%BB%E4%B8%BB%E7%BE%A9%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B%E6%86%B2%E6%B3%95</t>
   </si>
   <si>
-    <t>朝鮮民主主義人民共和國憲法</t>
+    <t>朝鲜民主主义人民共和国宪法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%97%A5%E6%88%90</t>
@@ -1097,13 +1085,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E9%AB%94%E6%80%9D%E6%83%B3</t>
   </si>
   <si>
-    <t>主體思想</t>
+    <t>主体思想</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%8B%E4%BA%BA%E5%B4%87%E6%8B%9C</t>
   </si>
   <si>
-    <t>個人崇拜</t>
+    <t>个人崇拜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%96%86%E5%A4%A7%E5%AD%A6</t>
@@ -1139,7 +1127,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E7%9A%84%E6%95%85%E4%BA%8B</t>
   </si>
   <si>
-    <t>人類的故事</t>
+    <t>人类的故事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%BF%E9%BE%99</t>
@@ -1157,7 +1145,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%AC%8A</t>
   </si>
   <si>
-    <t>人權</t>
+    <t>人权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B0%91%E6%9D%83%E5%88%A9%E5%92%8C%E6%94%BF%E6%B2%BB%E6%9D%83%E5%88%A9</t>
@@ -1211,13 +1199,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%B0LGBT%E6%AC%8A%E5%88%A9</t>
   </si>
   <si>
-    <t>各地LGBT權利</t>
+    <t>各地LGBT权利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%B1%8D</t>
   </si>
   <si>
-    <t>國籍</t>
+    <t>国籍</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%A0%BC</t>
@@ -1235,7 +1223,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BA%87%E8%AD%B7%E6%AC%8A</t>
   </si>
   <si>
-    <t>庇護權</t>
+    <t>庇护权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%B6%E5%BA%AD</t>
@@ -1253,7 +1241,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E5%91%BD%E6%AC%8A</t>
   </si>
   <si>
-    <t>生命權</t>
+    <t>生命权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AF%B7%E6%B1%82%E6%9D%83</t>
@@ -1277,7 +1265,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%81%8D%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>普遍選舉</t>
+    <t>普遍选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E3%80%81%E7%A4%BE%E4%BC%9A%E5%92%8C%E6%96%87%E5%8C%96%E6%9D%83%E5%88%A9</t>
@@ -1289,7 +1277,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E4%BD%8D%E6%AC%8A%E5%88%A9</t>
   </si>
   <si>
-    <t>數位權利</t>
+    <t>数位权利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E5%B7%A5%E5%90%8C%E9%85%AC</t>
@@ -1301,13 +1289,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A0%B1%E9%85%AC</t>
   </si>
   <si>
-    <t>報酬</t>
+    <t>报酬</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%80%E4%BD%8E%E7%94%9F%E6%B4%BB%E4%BF%9D%E9%9A%9C%E6%AC%8A</t>
   </si>
   <si>
-    <t>最低生活保障權</t>
+    <t>最低生活保障权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%BF%E7%9D%80%E6%9D%83</t>
@@ -1331,19 +1319,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A1%E7%94%A2%E6%AC%8A</t>
   </si>
   <si>
-    <t>財產權</t>
+    <t>财产权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E7%9C%BE%E5%8F%83%E8%88%87</t>
   </si>
   <si>
-    <t>公眾參與</t>
+    <t>公众参与</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E6%AC%8A</t>
   </si>
   <si>
-    <t>水權</t>
+    <t>水权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E4%BC%9A</t>
@@ -1373,7 +1361,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E9%99%B0%E6%AE%98%E5%89%B2</t>
   </si>
   <si>
-    <t>女陰殘割</t>
+    <t>女阴残割</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%AE%96%E5%81%A5%E5%BA%B7</t>
@@ -1409,7 +1397,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1421,7 +1409,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -2517,7 +2505,7 @@
         <v>51</v>
       </c>
       <c r="F26" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="G26" t="n">
         <v>3</v>
@@ -2543,10 +2531,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>2</v>
@@ -2572,10 +2560,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -2630,10 +2618,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" t="s">
         <v>57</v>
-      </c>
-      <c r="F30" t="s">
-        <v>58</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -2659,10 +2647,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" t="s">
         <v>59</v>
-      </c>
-      <c r="F31" t="s">
-        <v>60</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -2688,10 +2676,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" t="s">
         <v>61</v>
-      </c>
-      <c r="F32" t="s">
-        <v>62</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -2717,10 +2705,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" t="s">
         <v>63</v>
-      </c>
-      <c r="F33" t="s">
-        <v>64</v>
       </c>
       <c r="G33" t="n">
         <v>9</v>
@@ -2746,10 +2734,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" t="s">
         <v>65</v>
-      </c>
-      <c r="F34" t="s">
-        <v>66</v>
       </c>
       <c r="G34" t="n">
         <v>7</v>
@@ -2775,10 +2763,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
         <v>67</v>
-      </c>
-      <c r="F35" t="s">
-        <v>68</v>
       </c>
       <c r="G35" t="n">
         <v>2</v>
@@ -2804,10 +2792,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" t="s">
         <v>69</v>
-      </c>
-      <c r="F36" t="s">
-        <v>70</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2833,10 +2821,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" t="s">
         <v>71</v>
-      </c>
-      <c r="F37" t="s">
-        <v>72</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2862,10 +2850,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>72</v>
+      </c>
+      <c r="F38" t="s">
         <v>73</v>
-      </c>
-      <c r="F38" t="s">
-        <v>74</v>
       </c>
       <c r="G38" t="n">
         <v>3</v>
@@ -2891,10 +2879,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" t="s">
         <v>75</v>
-      </c>
-      <c r="F39" t="s">
-        <v>76</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2920,10 +2908,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>76</v>
+      </c>
+      <c r="F40" t="s">
         <v>77</v>
-      </c>
-      <c r="F40" t="s">
-        <v>78</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2949,10 +2937,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>78</v>
+      </c>
+      <c r="F41" t="s">
         <v>79</v>
-      </c>
-      <c r="F41" t="s">
-        <v>80</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2978,10 +2966,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>80</v>
+      </c>
+      <c r="F42" t="s">
         <v>81</v>
-      </c>
-      <c r="F42" t="s">
-        <v>82</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -3007,10 +2995,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>82</v>
+      </c>
+      <c r="F43" t="s">
         <v>83</v>
-      </c>
-      <c r="F43" t="s">
-        <v>84</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -3036,10 +3024,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>84</v>
+      </c>
+      <c r="F44" t="s">
         <v>85</v>
-      </c>
-      <c r="F44" t="s">
-        <v>86</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -3065,10 +3053,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>86</v>
+      </c>
+      <c r="F45" t="s">
         <v>87</v>
-      </c>
-      <c r="F45" t="s">
-        <v>88</v>
       </c>
       <c r="G45" t="n">
         <v>26</v>
@@ -3094,10 +3082,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" t="s">
         <v>89</v>
-      </c>
-      <c r="F46" t="s">
-        <v>90</v>
       </c>
       <c r="G46" t="n">
         <v>3</v>
@@ -3123,10 +3111,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>90</v>
+      </c>
+      <c r="F47" t="s">
         <v>91</v>
-      </c>
-      <c r="F47" t="s">
-        <v>92</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -3152,10 +3140,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>92</v>
+      </c>
+      <c r="F48" t="s">
         <v>93</v>
-      </c>
-      <c r="F48" t="s">
-        <v>94</v>
       </c>
       <c r="G48" t="n">
         <v>15</v>
@@ -3181,10 +3169,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>94</v>
+      </c>
+      <c r="F49" t="s">
         <v>95</v>
-      </c>
-      <c r="F49" t="s">
-        <v>96</v>
       </c>
       <c r="G49" t="n">
         <v>5</v>
@@ -3210,10 +3198,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>96</v>
+      </c>
+      <c r="F50" t="s">
         <v>97</v>
-      </c>
-      <c r="F50" t="s">
-        <v>98</v>
       </c>
       <c r="G50" t="n">
         <v>11</v>
@@ -3239,10 +3227,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>98</v>
+      </c>
+      <c r="F51" t="s">
         <v>99</v>
-      </c>
-      <c r="F51" t="s">
-        <v>100</v>
       </c>
       <c r="G51" t="n">
         <v>4</v>
@@ -3268,10 +3256,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>100</v>
+      </c>
+      <c r="F52" t="s">
         <v>101</v>
-      </c>
-      <c r="F52" t="s">
-        <v>102</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -3297,10 +3285,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>102</v>
+      </c>
+      <c r="F53" t="s">
         <v>103</v>
-      </c>
-      <c r="F53" t="s">
-        <v>104</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -3326,10 +3314,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>104</v>
+      </c>
+      <c r="F54" t="s">
         <v>105</v>
-      </c>
-      <c r="F54" t="s">
-        <v>106</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -3355,10 +3343,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>106</v>
+      </c>
+      <c r="F55" t="s">
         <v>107</v>
-      </c>
-      <c r="F55" t="s">
-        <v>108</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -3384,10 +3372,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>108</v>
+      </c>
+      <c r="F56" t="s">
         <v>109</v>
-      </c>
-      <c r="F56" t="s">
-        <v>110</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3413,10 +3401,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>110</v>
+      </c>
+      <c r="F57" t="s">
         <v>111</v>
-      </c>
-      <c r="F57" t="s">
-        <v>112</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -3442,10 +3430,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>112</v>
+      </c>
+      <c r="F58" t="s">
         <v>113</v>
-      </c>
-      <c r="F58" t="s">
-        <v>114</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -3471,10 +3459,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>114</v>
+      </c>
+      <c r="F59" t="s">
         <v>115</v>
-      </c>
-      <c r="F59" t="s">
-        <v>116</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3500,10 +3488,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>116</v>
+      </c>
+      <c r="F60" t="s">
         <v>117</v>
-      </c>
-      <c r="F60" t="s">
-        <v>118</v>
       </c>
       <c r="G60" t="n">
         <v>2</v>
@@ -3529,10 +3517,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>118</v>
+      </c>
+      <c r="F61" t="s">
         <v>119</v>
-      </c>
-      <c r="F61" t="s">
-        <v>120</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3558,10 +3546,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>120</v>
+      </c>
+      <c r="F62" t="s">
         <v>121</v>
-      </c>
-      <c r="F62" t="s">
-        <v>122</v>
       </c>
       <c r="G62" t="n">
         <v>2</v>
@@ -3587,10 +3575,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>122</v>
+      </c>
+      <c r="F63" t="s">
         <v>123</v>
-      </c>
-      <c r="F63" t="s">
-        <v>124</v>
       </c>
       <c r="G63" t="n">
         <v>10</v>
@@ -3616,10 +3604,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>124</v>
+      </c>
+      <c r="F64" t="s">
         <v>125</v>
-      </c>
-      <c r="F64" t="s">
-        <v>126</v>
       </c>
       <c r="G64" t="n">
         <v>2</v>
@@ -3645,10 +3633,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>126</v>
+      </c>
+      <c r="F65" t="s">
         <v>127</v>
-      </c>
-      <c r="F65" t="s">
-        <v>128</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3674,10 +3662,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>128</v>
+      </c>
+      <c r="F66" t="s">
         <v>129</v>
-      </c>
-      <c r="F66" t="s">
-        <v>130</v>
       </c>
       <c r="G66" t="n">
         <v>3</v>
@@ -3703,10 +3691,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>130</v>
+      </c>
+      <c r="F67" t="s">
         <v>131</v>
-      </c>
-      <c r="F67" t="s">
-        <v>132</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3732,10 +3720,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>132</v>
+      </c>
+      <c r="F68" t="s">
         <v>133</v>
-      </c>
-      <c r="F68" t="s">
-        <v>134</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3761,10 +3749,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>134</v>
+      </c>
+      <c r="F69" t="s">
         <v>135</v>
-      </c>
-      <c r="F69" t="s">
-        <v>136</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3790,10 +3778,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>136</v>
+      </c>
+      <c r="F70" t="s">
         <v>137</v>
-      </c>
-      <c r="F70" t="s">
-        <v>138</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3819,10 +3807,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>138</v>
+      </c>
+      <c r="F71" t="s">
         <v>139</v>
-      </c>
-      <c r="F71" t="s">
-        <v>140</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3848,10 +3836,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>140</v>
+      </c>
+      <c r="F72" t="s">
         <v>141</v>
-      </c>
-      <c r="F72" t="s">
-        <v>142</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3877,10 +3865,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>142</v>
+      </c>
+      <c r="F73" t="s">
         <v>143</v>
-      </c>
-      <c r="F73" t="s">
-        <v>144</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3906,10 +3894,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>144</v>
+      </c>
+      <c r="F74" t="s">
         <v>145</v>
-      </c>
-      <c r="F74" t="s">
-        <v>146</v>
       </c>
       <c r="G74" t="n">
         <v>3</v>
@@ -3935,10 +3923,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>146</v>
+      </c>
+      <c r="F75" t="s">
         <v>147</v>
-      </c>
-      <c r="F75" t="s">
-        <v>148</v>
       </c>
       <c r="G75" t="n">
         <v>3</v>
@@ -3964,10 +3952,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>148</v>
+      </c>
+      <c r="F76" t="s">
         <v>149</v>
-      </c>
-      <c r="F76" t="s">
-        <v>150</v>
       </c>
       <c r="G76" t="n">
         <v>6</v>
@@ -3993,10 +3981,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>150</v>
+      </c>
+      <c r="F77" t="s">
         <v>151</v>
-      </c>
-      <c r="F77" t="s">
-        <v>152</v>
       </c>
       <c r="G77" t="n">
         <v>3</v>
@@ -4022,10 +4010,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F78" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="G78" t="n">
         <v>2</v>
@@ -4051,10 +4039,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F79" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G79" t="n">
         <v>3</v>
@@ -4080,10 +4068,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F80" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G80" t="n">
         <v>2</v>
@@ -4109,10 +4097,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F81" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4138,10 +4126,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F82" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4167,10 +4155,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F83" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4196,10 +4184,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F84" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4225,10 +4213,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F85" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4254,10 +4242,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F86" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4283,10 +4271,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F87" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4312,10 +4300,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F88" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G88" t="n">
         <v>174</v>
@@ -4341,10 +4329,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F89" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4370,10 +4358,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F90" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4399,10 +4387,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F91" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4428,10 +4416,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F92" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4457,10 +4445,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F93" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4486,10 +4474,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F94" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4515,10 +4503,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F95" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4544,10 +4532,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F96" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4573,10 +4561,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F97" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4602,10 +4590,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F98" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4631,10 +4619,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F99" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4660,10 +4648,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F100" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4689,10 +4677,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F101" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G101" t="n">
         <v>5</v>
@@ -4718,10 +4706,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F102" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G102" t="n">
         <v>8</v>
@@ -4747,10 +4735,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F103" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4776,10 +4764,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F104" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4805,10 +4793,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F105" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4834,10 +4822,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F106" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4863,10 +4851,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F107" t="s">
-        <v>208</v>
+        <v>95</v>
       </c>
       <c r="G107" t="n">
         <v>5</v>
@@ -4892,10 +4880,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F108" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4921,10 +4909,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F109" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G109" t="n">
         <v>2</v>
@@ -4950,10 +4938,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F110" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4979,10 +4967,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F111" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5008,10 +4996,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F112" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G112" t="n">
         <v>3</v>
@@ -5037,10 +5025,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F113" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5066,10 +5054,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F114" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G114" t="n">
         <v>5</v>
@@ -5095,10 +5083,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F115" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G115" t="n">
         <v>19</v>
@@ -5124,10 +5112,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F116" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5153,10 +5141,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F117" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5182,10 +5170,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F118" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G118" t="n">
         <v>3</v>
@@ -5211,10 +5199,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F119" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5240,10 +5228,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F120" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5269,10 +5257,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F121" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5298,10 +5286,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F122" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G122" t="n">
         <v>4</v>
@@ -5327,10 +5315,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F123" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G123" t="n">
         <v>4</v>
@@ -5356,10 +5344,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F124" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5385,10 +5373,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F125" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5414,10 +5402,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F126" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5443,10 +5431,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F127" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5472,10 +5460,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F128" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G128" t="n">
         <v>14</v>
@@ -5501,10 +5489,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F129" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5530,10 +5518,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F130" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5559,10 +5547,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F131" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5588,10 +5576,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F132" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G132" t="n">
         <v>4</v>
@@ -5617,10 +5605,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F133" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G133" t="n">
         <v>3</v>
@@ -5646,10 +5634,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F134" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5675,10 +5663,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F135" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G135" t="n">
         <v>13</v>
@@ -5704,10 +5692,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F136" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5733,10 +5721,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F137" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G137" t="n">
         <v>2</v>
@@ -5762,10 +5750,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F138" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5791,10 +5779,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F139" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5820,10 +5808,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F140" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5849,10 +5837,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F141" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G141" t="n">
         <v>3</v>
@@ -5878,10 +5866,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F142" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5907,10 +5895,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F143" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G143" t="n">
         <v>2</v>
@@ -5936,10 +5924,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F144" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5965,10 +5953,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F145" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5994,10 +5982,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F146" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G146" t="n">
         <v>2</v>
@@ -6023,10 +6011,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F147" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6052,10 +6040,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F148" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6081,10 +6069,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F149" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6110,10 +6098,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F150" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6139,10 +6127,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F151" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G151" t="n">
         <v>2</v>
@@ -6168,10 +6156,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F152" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6197,10 +6185,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F153" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6226,10 +6214,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F154" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6255,10 +6243,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F155" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6284,10 +6272,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F156" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6313,10 +6301,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F157" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6342,10 +6330,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F158" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6371,10 +6359,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F159" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6400,10 +6388,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F160" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G160" t="n">
         <v>2</v>
@@ -6429,10 +6417,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F161" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G161" t="n">
         <v>2</v>
@@ -6458,10 +6446,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F162" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6487,10 +6475,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F163" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6516,10 +6504,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F164" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6545,10 +6533,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F165" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6574,10 +6562,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F166" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G166" t="n">
         <v>2</v>
@@ -6603,10 +6591,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F167" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6632,10 +6620,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F168" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6661,10 +6649,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F169" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6690,10 +6678,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F170" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6719,10 +6707,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F171" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6748,10 +6736,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F172" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6777,10 +6765,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F173" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6806,10 +6794,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F174" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6835,10 +6823,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F175" t="s">
-        <v>344</v>
+        <v>235</v>
       </c>
       <c r="G175" t="n">
         <v>4</v>
@@ -6864,10 +6852,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
+        <v>150</v>
+      </c>
+      <c r="F176" t="s">
         <v>151</v>
-      </c>
-      <c r="F176" t="s">
-        <v>152</v>
       </c>
       <c r="G176" t="n">
         <v>6</v>
@@ -6893,10 +6881,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F177" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6922,10 +6910,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F178" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6951,10 +6939,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F179" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6980,10 +6968,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F180" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7009,10 +6997,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F181" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G181" t="n">
         <v>7</v>
@@ -7038,10 +7026,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F182" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7067,10 +7055,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F183" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7096,10 +7084,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F184" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7125,10 +7113,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F185" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7154,10 +7142,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F186" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G186" t="n">
         <v>2</v>
@@ -7183,10 +7171,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F187" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7212,10 +7200,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F188" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7241,10 +7229,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F189" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7270,10 +7258,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F190" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G190" t="n">
         <v>2</v>
@@ -7299,10 +7287,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F191" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7328,10 +7316,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F192" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7357,10 +7345,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F193" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G193" t="n">
         <v>4</v>
@@ -7502,10 +7490,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F198" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G198" t="n">
         <v>8</v>
@@ -7531,10 +7519,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F199" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7560,10 +7548,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F200" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7647,10 +7635,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F203" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7676,10 +7664,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F204" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7705,10 +7693,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F205" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7734,10 +7722,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F206" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7763,10 +7751,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F207" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -7792,10 +7780,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F208" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -7821,10 +7809,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F209" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G209" t="n">
         <v>2</v>
@@ -7850,10 +7838,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F210" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -7879,10 +7867,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F211" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -7908,10 +7896,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F212" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -7937,10 +7925,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F213" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -7966,10 +7954,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F214" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G214" t="n">
         <v>2</v>
@@ -7995,10 +7983,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F215" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8024,10 +8012,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F216" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8053,10 +8041,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F217" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8082,10 +8070,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="F218" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8111,10 +8099,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F219" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8140,10 +8128,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F220" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8169,10 +8157,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F221" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8198,10 +8186,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F222" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8227,10 +8215,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F223" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8256,10 +8244,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F224" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8285,10 +8273,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="F225" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8314,10 +8302,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F226" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8343,10 +8331,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="F227" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8372,10 +8360,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="F228" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8401,10 +8389,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="F229" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8430,10 +8418,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F230" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8459,10 +8447,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="F231" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8488,10 +8476,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="F232" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -8517,10 +8505,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="F233" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="G233" t="n">
         <v>2</v>
@@ -8546,10 +8534,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F234" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -8575,10 +8563,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F235" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -8604,10 +8592,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F236" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -8633,10 +8621,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="F237" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -8662,10 +8650,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="F238" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -8691,10 +8679,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="F239" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -8720,10 +8708,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="F240" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -8749,10 +8737,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="F241" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -8778,10 +8766,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F242" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G242" t="n">
         <v>3</v>
@@ -8807,10 +8795,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F243" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -8836,10 +8824,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="F244" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
